--- a/biology/Botanique/Caleb_Threlkeld/Caleb_Threlkeld.xlsx
+++ b/biology/Botanique/Caleb_Threlkeld/Caleb_Threlkeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caleb Threlkeld est un botaniste irlandais, médecin et pasteur né en 1676 à Kirkoswald en Angleterre et mort à Dublin en 1728.
 Il est l'auteur de Synopsis Stirpium Hibernicarum alphabeticae dispositarum publié en 1726, le premier ouvrage exclusivement consacré à la flore d'Irlande.
-Ce livre contient la plus ancienne mention écrite de la légende de saint Patrick utilisant le trèfle pour évangéliser l'Irlande[1].
+Ce livre contient la plus ancienne mention écrite de la légende de saint Patrick utilisant le trèfle pour évangéliser l'Irlande.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caleb Threlkeld est né le 31 mai 1676 à Kirkoswald dans le comté de Cumberland en Angleterre. Il se marie avec Elizabeth Dalrymple à Édimbourg en 1698 avec qui il aura sept enfants, devient pasteur protestant, et reçoit le diplôme de médecin de l'université d'Édimbourg en 1712[2]. Il déménage alors à Dublin, où il exerce le métier de médecin et travaille sur le Synopsis Stirpium Hibernicarum. Il meurt à Dublin le 28 avril 1728[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caleb Threlkeld est né le 31 mai 1676 à Kirkoswald dans le comté de Cumberland en Angleterre. Il se marie avec Elizabeth Dalrymple à Édimbourg en 1698 avec qui il aura sept enfants, devient pasteur protestant, et reçoit le diplôme de médecin de l'université d'Édimbourg en 1712. Il déménage alors à Dublin, où il exerce le métier de médecin et travaille sur le Synopsis Stirpium Hibernicarum. Il meurt à Dublin le 28 avril 1728.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1726 : Synopsis Stirpium Hibernicarum alphabeticae dispositarum. Caleb Threlkeld s'est basé sur les précédents travaux non publiés de Thomas Molyneux (en) et de Richard Heaton (en)[4], et a établi une liste de plus de 500 plantes, avec les noms en latin, anglais, et irlandais, accompagnés d'une description, des usages en médecine et des coutumes et croyances associées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1726 : Synopsis Stirpium Hibernicarum alphabeticae dispositarum. Caleb Threlkeld s'est basé sur les précédents travaux non publiés de Thomas Molyneux (en) et de Richard Heaton (en), et a établi une liste de plus de 500 plantes, avec les noms en latin, anglais, et irlandais, accompagnés d'une description, des usages en médecine et des coutumes et croyances associées.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Threlkeldia (en) lui est dédié[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Threlkeldia (en) lui est dédié.
 </t>
         </is>
       </c>
